--- a/meta2_final.xlsx
+++ b/meta2_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_n_f\Desktop\Plano\DATA_PROJECTS\JOSHmetaAnalysisPaper\LancetEDITORIAL\REDO20210414\github_codes_for_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AFC164-25F0-40A3-ACCA-AB019D7EA6B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF7D57-6D0D-4BAF-AECD-6F006BA0B287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1140" windowWidth="14268" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="840" windowWidth="14268" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,7 +890,7 @@
         <v>34</v>
       </c>
       <c r="I9" s="7">
-        <v>396</v>
+        <v>286</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>5</v>
@@ -1124,7 +1124,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>1183</v>
+        <v>1383</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>

--- a/meta2_final.xlsx
+++ b/meta2_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_n_f\Desktop\Plano\DATA_PROJECTS\JOSHmetaAnalysisPaper\LancetEDITORIAL\REDO20210414\github_codes_for_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF7D57-6D0D-4BAF-AECD-6F006BA0B287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5213B4-309E-4931-A4ED-3134BFC6F2DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="840" windowWidth="14268" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2136" windowWidth="14268" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1057,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>898</v>
+        <v>393</v>
       </c>
       <c r="L14" t="s">
         <v>8</v>

--- a/meta2_final.xlsx
+++ b/meta2_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_n_f\Desktop\Plano\DATA_PROJECTS\JOSHmetaAnalysisPaper\LancetEDITORIAL\REDO20210414\github_codes_for_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_n_f\Desktop\Plano\DATA_PROJECTS\JOSHmetaAnalysisPaper\LancetEDITORIAL\REDO20210420\github_codes_for_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5213B4-309E-4931-A4ED-3134BFC6F2DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAB5269-D848-4692-9C37-0F163F0D439F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2136" windowWidth="14268" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="1644" windowWidth="13032" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,7 +890,7 @@
         <v>34</v>
       </c>
       <c r="I9" s="7">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>5</v>
@@ -1158,7 +1158,7 @@
         <v>4.05</v>
       </c>
       <c r="G17" s="6">
-        <v>16.21</v>
+        <v>16.2</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>34</v>
